--- a/Codelist Excel Files and Conversion Templates to XML/grout_inj_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/grout_inj_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{508B2A40-949E-0B49-B26F-636BE41298A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{8AF8DB2D-E29F-0142-979F-04286F06827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17320" yWindow="9700" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17320" yWindow="9700" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="345">
   <si>
     <t>Description</t>
   </si>
@@ -1068,6 +1068,9 @@
   </si>
   <si>
     <t>//diggs:ContinuousGroutInjectionProperty/diggs:propertyClass</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1929,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2765,9 +2768,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2803,6 +2806,9 @@
       <c r="C2" s="3" t="s">
         <v>342</v>
       </c>
+      <c r="D2" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="str">
@@ -2815,6 +2821,9 @@
       <c r="C3" s="3" t="s">
         <v>342</v>
       </c>
+      <c r="D3" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="str">
@@ -2827,6 +2836,9 @@
       <c r="C4" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="D4" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="str">
@@ -2839,6 +2851,9 @@
       <c r="C5" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="D5" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="str">
@@ -2851,6 +2866,9 @@
       <c r="C6" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="D6" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="str">
@@ -2863,6 +2881,9 @@
       <c r="C7" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="D7" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="str">
@@ -2875,6 +2896,9 @@
       <c r="C8" s="3" t="s">
         <v>342</v>
       </c>
+      <c r="D8" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="str">
@@ -2887,6 +2911,9 @@
       <c r="C9" s="3" t="s">
         <v>342</v>
       </c>
+      <c r="D9" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="str">
@@ -2899,6 +2926,9 @@
       <c r="C10" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="D10" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="str">
@@ -2911,6 +2941,9 @@
       <c r="C11" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="D11" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="str">
@@ -2923,6 +2956,9 @@
       <c r="C12" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="D12" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="str">
@@ -2935,6 +2971,9 @@
       <c r="C13" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="D13" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="str">
@@ -2947,6 +2986,9 @@
       <c r="C14" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="D14" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="str">
@@ -2959,6 +3001,9 @@
       <c r="C15" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="D15" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="str">
@@ -2971,8 +3016,11 @@
       <c r="C16" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2983,8 +3031,11 @@
       <c r="C17" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2995,8 +3046,11 @@
       <c r="C18" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3007,8 +3061,11 @@
       <c r="C19" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3019,8 +3076,11 @@
       <c r="C20" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3031,8 +3091,11 @@
       <c r="C21" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3043,8 +3106,11 @@
       <c r="C22" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3055,8 +3121,11 @@
       <c r="C23" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3067,8 +3136,11 @@
       <c r="C24" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3079,8 +3151,11 @@
       <c r="C25" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3091,8 +3166,11 @@
       <c r="C26" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3103,8 +3181,11 @@
       <c r="C27" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3115,8 +3196,11 @@
       <c r="C28" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3127,8 +3211,11 @@
       <c r="C29" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3139,8 +3226,11 @@
       <c r="C30" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3151,8 +3241,11 @@
       <c r="C31" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3163,8 +3256,11 @@
       <c r="C32" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3175,8 +3271,11 @@
       <c r="C33" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3187,8 +3286,11 @@
       <c r="C34" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3199,8 +3301,11 @@
       <c r="C35" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3211,8 +3316,11 @@
       <c r="C36" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3223,8 +3331,11 @@
       <c r="C37" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3235,8 +3346,11 @@
       <c r="C38" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3247,8 +3361,11 @@
       <c r="C39" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3259,8 +3376,11 @@
       <c r="C40" s="21" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3271,8 +3391,11 @@
       <c r="C41" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3283,8 +3406,11 @@
       <c r="C42" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="str">
         <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3294,6 +3420,9 @@
       </c>
       <c r="C43" s="3" t="s">
         <v>343</v>
+      </c>
+      <c r="D43" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/grout_inj_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/grout_inj_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{8AF8DB2D-E29F-0142-979F-04286F06827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{A79B62B2-DD02-9B49-ACA0-C8904FE891A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17320" yWindow="9700" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17320" yWindow="9700" windowWidth="35840" windowHeight="20900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1860,8 +1860,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2768,9 +2768,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D43"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Codelist Excel Files and Conversion Templates to XML/grout_inj_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/grout_inj_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{A79B62B2-DD02-9B49-ACA0-C8904FE891A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848797CE-DC50-7E48-B465-17D8B95EA5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17320" yWindow="9700" windowWidth="35840" windowHeight="20900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17320" yWindow="9700" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
     <t>//diggs:ContinuousGroutInjectionProperty/diggs:propertyClass</t>
   </si>
   <si>
-    <t>None</t>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1259,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1295,9 +1295,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1308,7 +1305,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1356,42 +1352,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1515,6 +1475,42 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1529,46 +1525,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:E3" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:E3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:E3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DictionaryFile" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DictionaryName" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DictionaryFile" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DictionaryName" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H36" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H36" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D43" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D43" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:D43" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="1"/>
@@ -1860,7 +1856,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1995,20 +1991,20 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="str">
+      <c r="A3" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2867,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2017,20 +2013,20 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="str">
+      <c r="A4" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2868,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -2039,20 +2035,20 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="str">
+      <c r="A5" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2869,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2061,20 +2057,20 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="str">
+      <c r="A6" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2870,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -2083,20 +2079,20 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="str">
+      <c r="A7" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2105,20 +2101,20 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="str">
+      <c r="A8" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2872,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -2127,20 +2123,20 @@
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="str">
+      <c r="A9" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -2149,20 +2145,20 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="str">
+      <c r="A10" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -2171,20 +2167,20 @@
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="str">
+      <c r="A11" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -2193,20 +2189,20 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="str">
+      <c r="A12" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -2215,20 +2211,20 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="str">
+      <c r="A13" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2237,20 +2233,20 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="str">
+      <c r="A14" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2878,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -2259,20 +2255,20 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="str">
+      <c r="A15" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2281,20 +2277,20 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="str">
+      <c r="A16" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2303,20 +2299,20 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="str">
+      <c r="A17" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2881,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2325,20 +2321,20 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="str">
+      <c r="A18" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2882,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -2347,20 +2343,20 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="str">
+      <c r="A19" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2883,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2369,20 +2365,20 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="str">
+      <c r="A20" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2884,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2391,20 +2387,20 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="str">
+      <c r="A21" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2885,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2413,20 +2409,20 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="str">
+      <c r="A22" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2886,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2435,20 +2431,20 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="str">
+      <c r="A23" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2887,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2457,20 +2453,20 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="str">
+      <c r="A24" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2888,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -2479,20 +2475,20 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="str">
+      <c r="A25" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2889,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -2501,20 +2497,20 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="str">
+      <c r="A26" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2890,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -2523,20 +2519,20 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="str">
+      <c r="A27" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2891,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -2545,20 +2541,20 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="str">
+      <c r="A28" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2892,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -2567,20 +2563,20 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="str">
+      <c r="A29" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2893,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -2589,20 +2585,20 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="str">
+      <c r="A30" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2894,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2611,20 +2607,20 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="str">
+      <c r="A31" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2895,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -2633,20 +2629,20 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="str">
+      <c r="A32" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2896,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -2655,20 +2651,20 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="str">
+      <c r="A33" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2897,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="19" t="s">
         <v>180</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -2677,20 +2673,20 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="str">
+      <c r="A34" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2898,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -2699,20 +2695,20 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="str">
+      <c r="A35" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2899,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -2721,20 +2717,20 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="str">
+      <c r="A36" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2900,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -2768,9 +2764,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2811,7 +2807,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="str">
+      <c r="A3" t="str">
         <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2826,7 +2822,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="str">
+      <c r="A4" t="str">
         <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2841,7 +2837,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="str">
+      <c r="A5" t="str">
         <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2856,7 +2852,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="str">
+      <c r="A6" t="str">
         <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2871,7 +2867,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="str">
+      <c r="A7" t="str">
         <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2886,7 +2882,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="str">
+      <c r="A8" t="str">
         <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2901,7 +2897,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="str">
+      <c r="A9" t="str">
         <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2916,7 +2912,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="str">
+      <c r="A10" t="str">
         <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2931,7 +2927,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="str">
+      <c r="A11" t="str">
         <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2946,7 +2942,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="str">
+      <c r="A12" t="str">
         <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2961,7 +2957,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="str">
+      <c r="A13" t="str">
         <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2976,7 +2972,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="str">
+      <c r="A14" t="str">
         <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -2991,7 +2987,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="str">
+      <c r="A15" t="str">
         <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3006,7 +3002,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="str">
+      <c r="A16" t="str">
         <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3021,7 +3017,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="str">
+      <c r="A17" t="str">
         <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3036,7 +3032,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="str">
+      <c r="A18" t="str">
         <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3051,7 +3047,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="str">
+      <c r="A19" t="str">
         <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3066,7 +3062,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="str">
+      <c r="A20" t="str">
         <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3081,7 +3077,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="str">
+      <c r="A21" t="str">
         <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3096,7 +3092,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="str">
+      <c r="A22" t="str">
         <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3111,7 +3107,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="str">
+      <c r="A23" t="str">
         <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3126,7 +3122,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="str">
+      <c r="A24" t="str">
         <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3141,7 +3137,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="str">
+      <c r="A25" t="str">
         <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3156,7 +3152,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="str">
+      <c r="A26" t="str">
         <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3171,7 +3167,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="str">
+      <c r="A27" t="str">
         <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3186,7 +3182,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="str">
+      <c r="A28" t="str">
         <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3201,7 +3197,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="str">
+      <c r="A29" t="str">
         <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3216,7 +3212,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="str">
+      <c r="A30" t="str">
         <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3231,7 +3227,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="str">
+      <c r="A31" t="str">
         <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3246,7 +3242,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="str">
+      <c r="A32" t="str">
         <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3261,7 +3257,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="str">
+      <c r="A33" t="str">
         <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3276,7 +3272,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="str">
+      <c r="A34" t="str">
         <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3291,7 +3287,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="str">
+      <c r="A35" t="str">
         <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3306,7 +3302,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="str">
+      <c r="A36" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3321,7 +3317,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="str">
+      <c r="A37" t="str">
         <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3336,7 +3332,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="str">
+      <c r="A38" t="str">
         <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3351,7 +3347,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="str">
+      <c r="A39" t="str">
         <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3366,14 +3362,14 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="str">
+      <c r="A40" t="str">
         <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B40" t="s">
         <v>335</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>342</v>
       </c>
       <c r="D40" t="s">
@@ -3381,7 +3377,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="str">
+      <c r="A41" t="str">
         <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3396,7 +3392,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="str">
+      <c r="A42" t="str">
         <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
@@ -3411,7 +3407,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="str">
+      <c r="A43" t="str">
         <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>

--- a/Codelist Excel Files and Conversion Templates to XML/grout_inj_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/grout_inj_properties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848797CE-DC50-7E48-B465-17D8B95EA5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4307EB82-3615-D547-84AC-52D70A3F8985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17320" yWindow="9700" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,18 +737,12 @@
     <t>language</t>
   </si>
   <si>
-    <t>properties</t>
-  </si>
-  <si>
     <t>gr_inj_properties</t>
   </si>
   <si>
     <t>DIGGS Grout Injection Properties</t>
   </si>
   <si>
-    <t>Dictionary defining the values for recorded grout ijection properties for both staged and continuous grouting activities. These values are used in the property_class property of the "GroutinjectionProperty" and "ContinuousGroutInjectionProperty" objects.</t>
-  </si>
-  <si>
     <t>apparent_lugeon_value</t>
   </si>
   <si>
@@ -1071,6 +1065,12 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>propertyClass</t>
+  </si>
+  <si>
+    <t>Dictionary defining the values for recorded grout injection properties for both staged and continuous grouting activities. These values are used in the propertyClass property of the "GroutinjectionProperty" and "ContinuousGroutInjectionProperty" objects.</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1898,16 +1898,16 @@
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>236</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -1974,13 +1974,13 @@
         <v/>
       </c>
       <c r="B2" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>1</v>
@@ -1996,13 +1996,13 @@
         <v/>
       </c>
       <c r="B3" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>240</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>242</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>1</v>
@@ -2018,13 +2018,13 @@
         <v/>
       </c>
       <c r="B4" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>245</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>1</v>
@@ -2040,13 +2040,13 @@
         <v/>
       </c>
       <c r="B5" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>1</v>
@@ -2062,13 +2062,13 @@
         <v/>
       </c>
       <c r="B6" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>248</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>250</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>1</v>
@@ -2084,13 +2084,13 @@
         <v/>
       </c>
       <c r="B7" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>1</v>
@@ -2106,13 +2106,13 @@
         <v/>
       </c>
       <c r="B8" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>256</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>1</v>
@@ -2128,13 +2128,13 @@
         <v/>
       </c>
       <c r="B9" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>259</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>1</v>
@@ -2150,13 +2150,13 @@
         <v/>
       </c>
       <c r="B10" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>262</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>1</v>
@@ -2172,13 +2172,13 @@
         <v/>
       </c>
       <c r="B11" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>265</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>1</v>
@@ -2194,13 +2194,13 @@
         <v/>
       </c>
       <c r="B12" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>268</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>1</v>
@@ -2216,13 +2216,13 @@
         <v/>
       </c>
       <c r="B13" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>271</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>1</v>
@@ -2238,13 +2238,13 @@
         <v/>
       </c>
       <c r="B14" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>274</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>1</v>
@@ -2260,13 +2260,13 @@
         <v/>
       </c>
       <c r="B15" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>275</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>277</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>1</v>
@@ -2282,13 +2282,13 @@
         <v/>
       </c>
       <c r="B16" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>280</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>1</v>
@@ -2304,13 +2304,13 @@
         <v/>
       </c>
       <c r="B17" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>283</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>1</v>
@@ -2326,13 +2326,13 @@
         <v/>
       </c>
       <c r="B18" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>284</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>286</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>1</v>
@@ -2348,13 +2348,13 @@
         <v/>
       </c>
       <c r="B19" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>289</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>1</v>
@@ -2370,13 +2370,13 @@
         <v/>
       </c>
       <c r="B20" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>292</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>1</v>
@@ -2392,13 +2392,13 @@
         <v/>
       </c>
       <c r="B21" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>293</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>295</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>1</v>
@@ -2414,13 +2414,13 @@
         <v/>
       </c>
       <c r="B22" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>296</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>298</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>1</v>
@@ -2436,13 +2436,13 @@
         <v/>
       </c>
       <c r="B23" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>299</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>301</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>1</v>
@@ -2458,19 +2458,19 @@
         <v/>
       </c>
       <c r="B24" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -2480,13 +2480,13 @@
         <v/>
       </c>
       <c r="B25" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>306</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>308</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>1</v>
@@ -2502,13 +2502,13 @@
         <v/>
       </c>
       <c r="B26" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>311</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>1</v>
@@ -2524,19 +2524,19 @@
         <v/>
       </c>
       <c r="B27" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>312</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>314</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -2546,13 +2546,13 @@
         <v/>
       </c>
       <c r="B28" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>316</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>318</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>1</v>
@@ -2568,13 +2568,13 @@
         <v/>
       </c>
       <c r="B29" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>319</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>321</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>1</v>
@@ -2590,13 +2590,13 @@
         <v/>
       </c>
       <c r="B30" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>322</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>324</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>1</v>
@@ -2612,13 +2612,13 @@
         <v/>
       </c>
       <c r="B31" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>325</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>327</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>1</v>
@@ -2634,19 +2634,19 @@
         <v/>
       </c>
       <c r="B32" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>328</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>330</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -2656,13 +2656,13 @@
         <v/>
       </c>
       <c r="B33" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>332</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>334</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>180</v>
@@ -2678,13 +2678,13 @@
         <v/>
       </c>
       <c r="B34" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>335</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>337</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>1</v>
@@ -2700,13 +2700,13 @@
         <v/>
       </c>
       <c r="B35" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>1</v>
@@ -2722,13 +2722,13 @@
         <v/>
       </c>
       <c r="B36" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>1</v>
@@ -2765,7 +2765,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -2797,13 +2797,13 @@
         <v/>
       </c>
       <c r="B2" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" t="s">
         <v>342</v>
-      </c>
-      <c r="D2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2812,13 +2812,13 @@
         <v/>
       </c>
       <c r="B3" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" t="s">
         <v>342</v>
-      </c>
-      <c r="D3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2827,13 +2827,13 @@
         <v/>
       </c>
       <c r="B4" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2842,13 +2842,13 @@
         <v/>
       </c>
       <c r="B5" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2857,13 +2857,13 @@
         <v/>
       </c>
       <c r="B6" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2872,13 +2872,13 @@
         <v/>
       </c>
       <c r="B7" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2887,13 +2887,13 @@
         <v/>
       </c>
       <c r="B8" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D8" t="s">
         <v>342</v>
-      </c>
-      <c r="D8" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2902,13 +2902,13 @@
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" t="s">
         <v>342</v>
-      </c>
-      <c r="D9" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2917,13 +2917,13 @@
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2932,13 +2932,13 @@
         <v/>
       </c>
       <c r="B11" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2947,13 +2947,13 @@
         <v/>
       </c>
       <c r="B12" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2962,13 +2962,13 @@
         <v/>
       </c>
       <c r="B13" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2977,13 +2977,13 @@
         <v/>
       </c>
       <c r="B14" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2992,13 +2992,13 @@
         <v/>
       </c>
       <c r="B15" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3007,13 +3007,13 @@
         <v/>
       </c>
       <c r="B16" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3022,13 +3022,13 @@
         <v/>
       </c>
       <c r="B17" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3037,13 +3037,13 @@
         <v/>
       </c>
       <c r="B18" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" t="s">
         <v>342</v>
-      </c>
-      <c r="D18" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3052,13 +3052,13 @@
         <v/>
       </c>
       <c r="B19" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3067,13 +3067,13 @@
         <v/>
       </c>
       <c r="B20" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" t="s">
         <v>342</v>
-      </c>
-      <c r="D20" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3082,13 +3082,13 @@
         <v/>
       </c>
       <c r="B21" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3097,13 +3097,13 @@
         <v/>
       </c>
       <c r="B22" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D22" t="s">
         <v>342</v>
-      </c>
-      <c r="D22" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3112,13 +3112,13 @@
         <v/>
       </c>
       <c r="B23" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D23" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3127,13 +3127,13 @@
         <v/>
       </c>
       <c r="B24" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" t="s">
         <v>342</v>
-      </c>
-      <c r="D24" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3142,13 +3142,13 @@
         <v/>
       </c>
       <c r="B25" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3157,13 +3157,13 @@
         <v/>
       </c>
       <c r="B26" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3172,13 +3172,13 @@
         <v/>
       </c>
       <c r="B27" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D27" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3187,13 +3187,13 @@
         <v/>
       </c>
       <c r="B28" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D28" t="s">
         <v>342</v>
-      </c>
-      <c r="D28" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3202,13 +3202,13 @@
         <v/>
       </c>
       <c r="B29" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C29" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" t="s">
         <v>342</v>
-      </c>
-      <c r="D29" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3217,13 +3217,13 @@
         <v/>
       </c>
       <c r="B30" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D30" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3232,13 +3232,13 @@
         <v/>
       </c>
       <c r="B31" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -3247,13 +3247,13 @@
         <v/>
       </c>
       <c r="B32" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C32" t="s">
+        <v>340</v>
+      </c>
+      <c r="D32" t="s">
         <v>342</v>
-      </c>
-      <c r="D32" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3262,13 +3262,13 @@
         <v/>
       </c>
       <c r="B33" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C33" t="s">
+        <v>340</v>
+      </c>
+      <c r="D33" t="s">
         <v>342</v>
-      </c>
-      <c r="D33" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3277,13 +3277,13 @@
         <v/>
       </c>
       <c r="B34" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D34" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3292,13 +3292,13 @@
         <v/>
       </c>
       <c r="B35" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3307,13 +3307,13 @@
         <v/>
       </c>
       <c r="B36" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D36" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3322,13 +3322,13 @@
         <v/>
       </c>
       <c r="B37" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3337,13 +3337,13 @@
         <v/>
       </c>
       <c r="B38" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D38" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3352,13 +3352,13 @@
         <v/>
       </c>
       <c r="B39" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D39" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3367,13 +3367,13 @@
         <v/>
       </c>
       <c r="B40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C40" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40" t="s">
         <v>342</v>
-      </c>
-      <c r="D40" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -3382,13 +3382,13 @@
         <v/>
       </c>
       <c r="B41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3397,13 +3397,13 @@
         <v/>
       </c>
       <c r="B42" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D42" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -3412,13 +3412,13 @@
         <v/>
       </c>
       <c r="B43" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/grout_inj_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/grout_inj_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4307EB82-3615-D547-84AC-52D70A3F8985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432D3342-C9F1-2245-9B65-18636ABBEEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17320" yWindow="9700" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22060" yWindow="3560" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="346">
   <si>
     <t>Description</t>
   </si>
@@ -1058,26 +1058,29 @@
     <t>Rotational force of the drill</t>
   </si>
   <si>
-    <t>//diggs:GroutInjectionProperty/diggs:propertyClass</t>
-  </si>
-  <si>
-    <t>//diggs:ContinuousGroutInjectionProperty/diggs:propertyClass</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>propertyClass</t>
   </si>
   <si>
     <t>Dictionary defining the values for recorded grout injection properties for both staged and continuous grouting activities. These values are used in the propertyClass property of the "GroutinjectionProperty" and "ContinuousGroutInjectionProperty" objects.</t>
+  </si>
+  <si>
+    <t>Time instant of measurement</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>//diggs:GroutStage//diggs:propertyClass</t>
+  </si>
+  <si>
+    <t>//diggs:ContinuousGrouting//diggs:propertyClass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1170,8 +1173,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1190,8 +1206,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1245,6 +1267,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1259,7 +1296,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1305,6 +1342,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1320,6 +1383,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1451,10 +1518,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1539,37 +1602,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H36" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H37" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="0">
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B872,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D43" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D43" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:E45" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:E45" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</calculatedColumnFormula>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement"/>
+    <tableColumn id="5" xr3:uid="{70DA9ABB-01EE-9C4D-9F26-0BFC80A8CC6E}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1898,7 +1962,7 @@
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>233</v>
@@ -1907,7 +1971,7 @@
         <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -1923,15 +1987,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="B8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="84.6640625" style="2" customWidth="1"/>
@@ -1970,7 +2034,7 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B872,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="16" t="s">
@@ -1992,7 +2056,7 @@
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2867,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B873,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="16" t="s">
@@ -2014,7 +2078,7 @@
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2868,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B874,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="16" t="s">
@@ -2036,7 +2100,7 @@
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2869,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B875,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="16" t="s">
@@ -2058,7 +2122,7 @@
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2870,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B876,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="16" t="s">
@@ -2080,7 +2144,7 @@
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2871,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B877,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="16" t="s">
@@ -2102,7 +2166,7 @@
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2872,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B878,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="16" t="s">
@@ -2124,7 +2188,7 @@
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B879,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="16" t="s">
@@ -2146,7 +2210,7 @@
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B880,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="16" t="s">
@@ -2168,7 +2232,7 @@
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B881,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="16" t="s">
@@ -2190,7 +2254,7 @@
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B882,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="16" t="s">
@@ -2212,7 +2276,7 @@
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B883,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="16" t="s">
@@ -2234,7 +2298,7 @@
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2878,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B884,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="16" t="s">
@@ -2256,7 +2320,7 @@
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B885,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="16" t="s">
@@ -2278,7 +2342,7 @@
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B886,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="16" t="s">
@@ -2300,7 +2364,7 @@
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2881,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B887,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="16" t="s">
@@ -2322,7 +2386,7 @@
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2882,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B888,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="16" t="s">
@@ -2344,7 +2408,7 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2883,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B889,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="16" t="s">
@@ -2366,7 +2430,7 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2884,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B890,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="16" t="s">
@@ -2388,7 +2452,7 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2885,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B891,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="16" t="s">
@@ -2410,7 +2474,7 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2886,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B892,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="16" t="s">
@@ -2432,7 +2496,7 @@
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2887,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B893,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="16" t="s">
@@ -2454,7 +2518,7 @@
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2888,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B894,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="16" t="s">
@@ -2476,7 +2540,7 @@
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2889,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B895,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="16" t="s">
@@ -2498,7 +2562,7 @@
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2890,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B896,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="16" t="s">
@@ -2520,7 +2584,7 @@
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2891,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B897,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="16" t="s">
@@ -2542,7 +2606,7 @@
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2892,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B898,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="16" t="s">
@@ -2564,7 +2628,7 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2893,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B899,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="16" t="s">
@@ -2586,7 +2650,7 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2894,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B900,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="16" t="s">
@@ -2608,7 +2672,7 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2895,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B901,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="16" t="s">
@@ -2630,7 +2694,7 @@
     </row>
     <row r="32" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2896,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B902,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="16" t="s">
@@ -2650,9 +2714,9 @@
       </c>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2897,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B903,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="16" t="s">
@@ -2672,9 +2736,9 @@
       </c>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2898,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B904,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="16" t="s">
@@ -2694,9 +2758,9 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2899,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B905,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="16" t="s">
@@ -2716,9 +2780,9 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2900,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B906,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="16" t="s">
@@ -2737,6 +2801,29 @@
         <v>111</v>
       </c>
       <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="str">
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B907,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="24"/>
+      <c r="H37" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2762,11 +2849,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2777,7 +2864,7 @@
     <col min="4" max="4" width="93" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -2790,635 +2877,538 @@
       <c r="D1" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B2" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B3" s="14" t="s">
         <v>238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B4" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B5" s="14" t="s">
         <v>244</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B6" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B7" s="14" t="s">
         <v>249</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B8" s="14" t="s">
         <v>252</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B9" t="s">
         <v>255</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B10" t="s">
         <v>255</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B11" s="14" t="s">
         <v>258</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B12" s="14" t="s">
         <v>261</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B13" s="14" t="s">
         <v>264</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D13" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B14" s="14" t="s">
         <v>267</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D14" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B15" s="14" t="s">
         <v>270</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B16" s="14" t="s">
         <v>273</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D16" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B17" s="14" t="s">
         <v>276</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B18" s="14" t="s">
         <v>279</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D18" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B19" s="14" t="s">
         <v>279</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D19" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B20" s="14" t="s">
         <v>282</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B21" s="14" t="s">
         <v>282</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D21" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B22" s="14" t="s">
         <v>285</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D22" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B23" s="14" t="s">
         <v>285</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D23" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B24" s="14" t="s">
         <v>288</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D24" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B25" s="14" t="s">
         <v>288</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B26" s="14" t="s">
         <v>291</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D26" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B27" s="14" t="s">
         <v>294</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D27" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B28" s="14" t="s">
         <v>297</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D28" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B29" s="14" t="s">
         <v>300</v>
       </c>
       <c r="C29" t="s">
-        <v>340</v>
-      </c>
-      <c r="D29" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B30" s="14" t="s">
         <v>304</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D30" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B31" s="14" t="s">
         <v>307</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D31" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B32" s="14" t="s">
         <v>310</v>
       </c>
       <c r="C32" t="s">
-        <v>340</v>
-      </c>
-      <c r="D32" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B33" s="14" t="s">
         <v>314</v>
       </c>
       <c r="C33" t="s">
-        <v>340</v>
-      </c>
-      <c r="D33" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B34" s="14" t="s">
         <v>317</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D34" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B35" s="14" t="s">
         <v>320</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D35" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B36" s="14" t="s">
         <v>323</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D36" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B37" s="14" t="s">
         <v>326</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D37" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B38" s="14" t="s">
         <v>330</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D38" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B39" t="s">
         <v>330</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D39" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B40" t="s">
         <v>333</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D40" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B41" t="s">
         <v>333</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D41" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B42" s="14" t="s">
         <v>336</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D42" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1846,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B43" s="14" t="s">
         <v>338</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D43" t="s">
-        <v>342</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="str">
+        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="28" t="str">
+        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/grout_inj_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/grout_inj_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432D3342-C9F1-2245-9B65-18636ABBEEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB35EA3-9C22-FB45-873E-75EEB1A08AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22060" yWindow="3560" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11720" yWindow="3840" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="347">
   <si>
     <t>Description</t>
   </si>
@@ -1070,10 +1070,13 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>//diggs:GroutStage//diggs:propertyClass</t>
-  </si>
-  <si>
-    <t>//diggs:ContinuousGrouting//diggs:propertyClass</t>
+    <t>//diggs:propertyClass</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:GroutStage</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:ContinuousGrouting</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1299,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1342,18 +1345,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1362,10 +1353,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -1382,10 +1369,24 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1518,6 +1519,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1588,24 +1593,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:E3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:E3" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DictionaryFile" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DictionaryName" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DictionaryFile" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DictionaryName" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H37" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H37" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B872,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
@@ -1632,7 +1637,7 @@
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{70DA9ABB-01EE-9C4D-9F26-0BFC80A8CC6E}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2714,7 +2719,7 @@
       </c>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B903,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2736,7 +2741,7 @@
       </c>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B904,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2758,7 +2763,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B905,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2780,7 +2785,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B906,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2802,28 +2807,27 @@
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="str">
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B907,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="23"/>
+      <c r="G37" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2852,8 +2856,8 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2889,8 +2893,11 @@
       <c r="B2" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="24" t="s">
         <v>344</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2901,8 +2908,11 @@
       <c r="B3" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="24" t="s">
         <v>344</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2913,8 +2923,11 @@
       <c r="B4" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>345</v>
+      <c r="C4" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2925,8 +2938,11 @@
       <c r="B5" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>345</v>
+      <c r="C5" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2937,8 +2953,11 @@
       <c r="B6" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>345</v>
+      <c r="C6" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2949,8 +2968,11 @@
       <c r="B7" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>345</v>
+      <c r="C7" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2961,8 +2983,11 @@
       <c r="B8" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="24" t="s">
         <v>344</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2973,8 +2998,11 @@
       <c r="B9" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="24" t="s">
         <v>344</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2985,8 +3013,11 @@
       <c r="B10" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>345</v>
+      <c r="C10" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2997,8 +3028,11 @@
       <c r="B11" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>345</v>
+      <c r="C11" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3009,8 +3043,11 @@
       <c r="B12" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>345</v>
+      <c r="C12" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3021,8 +3058,11 @@
       <c r="B13" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>345</v>
+      <c r="C13" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3033,8 +3073,11 @@
       <c r="B14" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>345</v>
+      <c r="C14" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3045,8 +3088,11 @@
       <c r="B15" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>345</v>
+      <c r="C15" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3057,11 +3103,14 @@
       <c r="B16" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3069,11 +3118,14 @@
       <c r="B17" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3081,11 +3133,14 @@
       <c r="B18" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="24" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3093,11 +3148,14 @@
       <c r="B19" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3105,11 +3163,14 @@
       <c r="B20" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="24" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3117,11 +3178,14 @@
       <c r="B21" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3129,11 +3193,14 @@
       <c r="B22" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="24" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3141,11 +3208,14 @@
       <c r="B23" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3153,11 +3223,14 @@
       <c r="B24" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="24" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3165,11 +3238,14 @@
       <c r="B25" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3177,11 +3253,14 @@
       <c r="B26" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3189,11 +3268,14 @@
       <c r="B27" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3201,11 +3283,14 @@
       <c r="B28" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="24" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3213,11 +3298,14 @@
       <c r="B29" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="24" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3225,11 +3313,14 @@
       <c r="B30" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3237,11 +3328,14 @@
       <c r="B31" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -3249,8 +3343,11 @@
       <c r="B32" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="24" t="s">
         <v>344</v>
+      </c>
+      <c r="D32" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3261,8 +3358,11 @@
       <c r="B33" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="24" t="s">
         <v>344</v>
+      </c>
+      <c r="D33" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3273,8 +3373,11 @@
       <c r="B34" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>345</v>
+      <c r="C34" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3285,8 +3388,11 @@
       <c r="B35" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>345</v>
+      <c r="C35" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -3297,8 +3403,11 @@
       <c r="B36" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>345</v>
+      <c r="C36" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -3309,8 +3418,11 @@
       <c r="B37" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>345</v>
+      <c r="C37" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3321,8 +3433,11 @@
       <c r="B38" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>345</v>
+      <c r="C38" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3333,8 +3448,11 @@
       <c r="B39" t="s">
         <v>330</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>345</v>
+      <c r="C39" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3345,8 +3463,11 @@
       <c r="B40" t="s">
         <v>333</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="24" t="s">
         <v>344</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -3357,8 +3478,11 @@
       <c r="B41" t="s">
         <v>333</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>345</v>
+      <c r="C41" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -3369,8 +3493,11 @@
       <c r="B42" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>345</v>
+      <c r="C42" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3381,34 +3508,42 @@
       <c r="B43" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1843,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>344</v>
       </c>
     </row>
   </sheetData>
